--- a/Spartan7_TriggerLogic/Spartan7_TriggerController/bom/BOM.xlsx
+++ b/Spartan7_TriggerLogic/Spartan7_TriggerController/bom/BOM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alex_\Documents\IKP\HYDRA\HYDRA_VMM3_Adapter\Spartan7_TriggerLogic\Spartan7_TriggerController\bom\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12E4E7EB-0399-4810-83D7-67F1062257A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B9525B6-83BD-414D-A8F6-07636FD55440}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9252" yWindow="3540" windowWidth="33960" windowHeight="18600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8904" yWindow="3192" windowWidth="33960" windowHeight="18600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
   <si>
     <t>Component type</t>
   </si>
@@ -66,6 +66,12 @@
   </si>
   <si>
     <t>Total Number of components</t>
+  </si>
+  <si>
+    <t>QSPI flash IS25LP256D</t>
+  </si>
+  <si>
+    <t>https://www.mouser.de/ProductDetail/ISSI/IS25LP256D-JLLE?qs=o7k0yqUNuKBtHG3%252BsElLAA%3D%3D</t>
   </si>
 </sst>
 </file>
@@ -399,10 +405,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -478,7 +484,18 @@
       </c>
       <c r="G4" s="1">
         <f>SUM(D2:D16)</f>
-        <v>31</v>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -486,6 +503,7 @@
     <hyperlink ref="C2" r:id="rId1" xr:uid="{9B15F20A-E2EC-4354-9306-D1C49F72F8FE}"/>
     <hyperlink ref="C3" r:id="rId2" xr:uid="{5F54FBA9-816C-4546-B3BA-C6FAB0BCE012}"/>
     <hyperlink ref="C4" r:id="rId3" xr:uid="{02AD8E21-FCED-45C1-9B04-5AF0C647C2BA}"/>
+    <hyperlink ref="C5" r:id="rId4" xr:uid="{98ABB275-12BA-4AD2-B1B0-5AD0C5653B13}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
